--- a/Aufgabe_01/Boxes/Boxes.xlsx
+++ b/Aufgabe_01/Boxes/Boxes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\Uni\Fächer\EIA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F82C92E-EE26-41D2-8D01-6E09CF3A963B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC7F1ED-BB8B-4356-A95E-149B0BF69D15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8472" xr2:uid="{85DA0C72-5341-4B94-95F7-C12B8F5D9EED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="67">
   <si>
     <t>Zeile</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>switch startet case 4</t>
-  </si>
-  <si>
-    <t>280px</t>
   </si>
   <si>
     <t>220px</t>
@@ -622,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0892DD2F-8FBB-407C-B8DC-BD352375520B}">
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="Q1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2938,7 +2935,7 @@
         <v>45</v>
       </c>
       <c r="M157">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N157">
         <v>220</v>
@@ -2974,6 +2971,9 @@
       <c r="B159" t="s">
         <v>43</v>
       </c>
+      <c r="E159">
+        <v>50</v>
+      </c>
       <c r="J159">
         <v>33</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>36</v>
       </c>
       <c r="Q166" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3090,7 @@
         <v>37</v>
       </c>
       <c r="Q167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="B171" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3157,7 @@
         <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G174">
         <v>5</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
